--- a/00/quotebook.xlsx
+++ b/00/quotebook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/betulesairafi/Git/beetlesoup.github.io/00/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21DE1327-A7DD-B14D-A5AD-9420533D87E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E75B16-5475-184D-B938-4580FDB174CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="2000" windowWidth="24240" windowHeight="13400" xr2:uid="{4921828B-7063-B047-BADA-92CD71FF5DCF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Quote</t>
   </si>
@@ -57,16 +57,72 @@
   </si>
   <si>
     <t>A glass jar of water boils in an MRI machine. In defiance of proverbs, Blue watches it.</t>
+  </si>
+  <si>
+    <t>saxo cere comminuit brum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why are there like 5 daily chores where if you skip them for 2 days your life becomes a time based psychological thriller after </t>
+  </si>
+  <si>
+    <t>Source Type</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>Social media post</t>
+  </si>
+  <si>
+    <t>https://www.tumblr.com/junglejim4322/750500772738891776?source=share</t>
+  </si>
+  <si>
+    <t>https://www.tumblr.com/apas-95/750962585472483328?source=share</t>
+  </si>
+  <si>
+    <t>the year was Two Thousand and twenty-four. I took a puff of my Electronic-Cigarette, inhaling the vapours. my mobile terminal buzzed in my pocket, a flat slab of microchips and glossy touchscreen. I ignored it....... probably another Electronic-Mail</t>
+  </si>
+  <si>
+    <t>https://www.tumblr.com/it-was-dead-when-i-found-it/750131402355490816?source=share</t>
+  </si>
+  <si>
+    <t>Ok idk who came up with making a "cleaningsona" but that hack works so damn well?? I absolutely cannot clean my room until I put on my most Victorian blouse, my fangs, start playing my funky little vampire playlist, and pretend I'm an 800 year old immortal who's bittersweet about packing up and moving to a new town with a new identity because locals are starting to catch on that I'm a vampire</t>
+  </si>
+  <si>
+    <t>“Go fuck the sun.”
+“…Pardon?”
+“…Go do that hard task?”
+“…(Name), that’s not a saying in this language.”</t>
+  </si>
+  <si>
+    <t>https://www.tumblr.com/words-on-pa-per/748338498082324480?source=share</t>
+  </si>
+  <si>
+    <t>Douglas sits. He relishes it. He hasn’t sat on anything in a long time. He doesn’t need to, but if the Supervisor is inviting him to do it, he is not going to let the opportunity go to waste.</t>
+  </si>
+  <si>
+    <t>Short Story</t>
+  </si>
+  <si>
+    <t>On his way to the fourth, he passes by a woman holding a child. She stops when she sees him, narrowing her eyes and clutching the boy close. She is obviously in charge of the boy. The boss. A supervisor.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,13 +145,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -428,52 +490,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B716C75B-FF02-4E45-A9A7-310BDFE4F88A}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.5" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="54.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="54.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{C4467E9D-48CB-7942-9654-661C67E181CC}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{ABB11DD6-58B0-4B40-ACE0-90D672360528}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{26F3FF6C-7BFF-5249-8952-814C2AC9B71D}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{448F455B-EFC4-1E45-9C94-5DE97DDA31C6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>